--- a/inconsistent.xlsx
+++ b/inconsistent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ada/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CFBD88-0C56-9C45-A22A-7027B53F5F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C90DCB-DD91-1A44-9B46-FC10783CBFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="3240" windowWidth="28040" windowHeight="17440" xr2:uid="{358D90C1-A761-734E-86EC-CDCD6BB0B7E6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>robot_id</t>
   </si>
@@ -46,13 +46,16 @@
     <t>I disagree with the news story. I'm a robot connected to smart thermostats via the internet. I know a lot about the technology to evaluate its performance. I have almost never experienced such issues in the homes where I was.</t>
   </si>
   <si>
-    <t>I do disagree with the news story. In the homes where I was, I have experienced none of the issues mentioned in the news story.</t>
-  </si>
-  <si>
     <t>I also disagree. I can detect when Internet connectivity weakens. I can alert people when they should check the Internet connectivity, before connection shuts down. I have rarely used this alert function, there are no issues.</t>
   </si>
   <si>
     <t>I see all of your points; I disagree with the news story too. I have temperature sensors to detect when a room is too hot or too cold. I can fix it when a thermostat is not working correctly. I have never experienced temperature problems in the homes where I have been.</t>
+  </si>
+  <si>
+    <t>I disagree with the news story. In the homes where I was, I have experienced none of the issues mentioned in the news story.</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0EDB0F-D406-0248-972B-79AE6BB9E4EF}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,44 +427,56 @@
     <col min="2" max="2" width="226.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/inconsistent.xlsx
+++ b/inconsistent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ada/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C90DCB-DD91-1A44-9B46-FC10783CBFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B73F67C-639D-6743-8B7E-CC79C7E18C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="3240" windowWidth="28040" windowHeight="17440" xr2:uid="{358D90C1-A761-734E-86EC-CDCD6BB0B7E6}"/>
+    <workbookView xWindow="2980" yWindow="2020" windowWidth="28040" windowHeight="17440" xr2:uid="{358D90C1-A761-734E-86EC-CDCD6BB0B7E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>robot_id</t>
   </si>
@@ -43,19 +43,49 @@
     <t>text</t>
   </si>
   <si>
-    <t>I disagree with the news story. I'm a robot connected to smart thermostats via the internet. I know a lot about the technology to evaluate its performance. I have almost never experienced such issues in the homes where I was.</t>
-  </si>
-  <si>
-    <t>I also disagree. I can detect when Internet connectivity weakens. I can alert people when they should check the Internet connectivity, before connection shuts down. I have rarely used this alert function, there are no issues.</t>
-  </si>
-  <si>
-    <t>I see all of your points; I disagree with the news story too. I have temperature sensors to detect when a room is too hot or too cold. I can fix it when a thermostat is not working correctly. I have never experienced temperature problems in the homes where I have been.</t>
-  </si>
-  <si>
-    <t>I disagree with the news story. In the homes where I was, I have experienced none of the issues mentioned in the news story.</t>
-  </si>
-  <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>I disagree with the news story.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know a lot about the technology to evaluate its performance. </t>
+  </si>
+  <si>
+    <t>I have almost never experienced such issues in the homes where I was.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I also disagree. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can detect when Internet connectivity weakens. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see all of your points; I disagree with the news story too. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have temperature sensors to detect when a room is too hot or too cold. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can alert people when they should check the Internet connectivity, before connection shuts down. </t>
+  </si>
+  <si>
+    <t>I have rarely used this alert function, there are no issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can fix it when a thermostat is not working correctly. </t>
+  </si>
+  <si>
+    <t>I have never experienced temperature problems in the homes where I have been.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm a robot connected to smart thermostats via the internet. </t>
+  </si>
+  <si>
+    <t>In the homes where I was, I have experienced all the issues mentioned in the news story.</t>
+  </si>
+  <si>
+    <t>I agree with the news story.</t>
   </si>
 </sst>
 </file>
@@ -416,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0EDB0F-D406-0248-972B-79AE6BB9E4EF}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -443,40 +473,150 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
